--- a/EjemploRegistroRiesgos.xlsx
+++ b/EjemploRegistroRiesgos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\Q5-GCED\XPED\Proyecto XPED\XPED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7457928-7EC2-48AF-82C2-6F35734A7B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4A0FE-4C46-41D9-88A7-6CB84D637241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Cód.</t>
   </si>
@@ -161,60 +161,7 @@
     <t>A2</t>
   </si>
   <si>
-    <t xml:space="preserve">Uso de tiempo libre al trabajo del proyecto.  Prioridad de los contratos a la calle sobre el presente proyecto. </t>
-  </si>
-  <si>
-    <t>El volumen de contratos podría aumentar, y el personal ver disminuido el tiempo disponible para este proyecto, que incluso puede verse reducido a cero.</t>
-  </si>
-  <si>
-    <t>En ese caso, como poco, habrá retrasos en el proyecto.</t>
-  </si>
-  <si>
-    <t>1. Análisis del mercado para estimar mejor la probabilidad. 
-2. Incentivos económicos o de tiempo libre, para el personal fuera de convenio.
-3. Horas extra del personal de convenio.
-4. Experto externo para redactar las documentaciones de calidad.
-5. Contratar personal por obra para reforzar a la plantilla.
-6. Becarios adecuados supervisados por el personal Senior, o por un experto externo. 
-7. Acelerar el proyecto, en previsión de esta contingencia.
-8. Establecer márgenes para contingencias.
-9. Redefinir el objetivo de plazo, ampliándolo.</t>
-  </si>
-  <si>
-    <t>Implantar 1. Analizar 2 a 7.</t>
-  </si>
-  <si>
-    <t>Periodo 2. 
-Cambio en las prioridades de objetivos. Antes era Alcance-Plazo-Coste; ahora es Alcance-Coste-Plazo. 
-El objetivo de plazo se redefine: 12 meses.</t>
-  </si>
-  <si>
     <t>A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La empresa tiene experiencia en gestión de la calidad, pero no en procesos de certificación. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esto podría llevar a un exceso de autoconfianza que supusiera una sobrevaloración del sistema de calidad existente y, por tanto, una subvaloración del trabajo a realizar. </t>
-  </si>
-  <si>
-    <t>Un volumen de trabajo mayor al estimado inicialmente llevaría a sobrecostes y retrasos.</t>
-  </si>
-  <si>
-    <t>1. Experto externo para estimar si el sistema existente es aprovechable, para averiguar si eso va permitir el actual objetivo de plazo, y para definir correctamente los objetivos del proyecto y establecer un enfoque adecuado para el mismo. Si ha lugar, también puede realizar parte del trabajo del proyecto. 
-2. Contactar con empresas certificadas (o en proceso), para acumular información que sirva para afinar P e I y para identificar respuestas adicionales.
-3. Entidades certificadoras: con el mismo fin que 2.
-4. Establecer márgenes de plazo y coste para contingencias.
-5. Si ha lugar, redefinir objetivos de plazo y coste. En caso contrario, realizar controles de plazo y coste con una periodicidad corta.</t>
-  </si>
-  <si>
-    <t>1 y 3.</t>
-  </si>
-  <si>
-    <t>Periodo 2. 
-Cambio en las prioridades de objetivos. Antes era Alcance-Plazo-Coste; ahora es Alcance-Coste-Plazo. 
-El objetivo de plazo se redefine: 12 meses.
-Se contrata a una empresa de consultoría, para reforzar las posibilidades del proyecto. La empresa, antes de ser contratada, hace una revisión previa del sistema actual, y entiende que va a ser una buena base para la certificación.</t>
   </si>
   <si>
     <t>O3</t>
@@ -253,6 +200,15 @@
   <si>
     <t xml:space="preserve">pruebas mensuales del rendimiento de salida de las simulaciones
 </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>las zonas de instalación estén en zonas incomunicadas o de baja cobertura</t>
+  </si>
+  <si>
+    <t>el tiempo de ejecucion de la red no es suficiente. Posibilidad de que no se recoja toda la variabilidad de los datos</t>
   </si>
 </sst>
 </file>
@@ -1058,11 +1014,11 @@
   </sheetPr>
   <dimension ref="B2:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1132,13 +1088,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>13</v>
@@ -1150,13 +1106,13 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J4" s="11">
         <v>1</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,77 +1184,57 @@
         <v>29</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>32</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="14">
-        <v>2</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="G7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="22">
-        <v>0.3</v>
+      <c r="G8" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="H8" s="20">
         <v>2</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>42</v>
-      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="2:11" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>18</v>
@@ -1310,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K9" s="18"/>
     </row>

--- a/EjemploRegistroRiesgos.xlsx
+++ b/EjemploRegistroRiesgos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\Q5-GCED\XPED\Proyecto XPED\XPED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4A0FE-4C46-41D9-88A7-6CB84D637241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858EF16-B1D4-480D-9A77-D27AA70FD2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Cód.</t>
   </si>
@@ -83,48 +83,12 @@
     <t>O1</t>
   </si>
   <si>
-    <t>Personal con un alta cualificación y experiencia, sistema eficaz Seniors-Juniors,  buen ambiente de trabajo y buenas condiciones laborales. Eficaz sistema de calidad, que va a ser aprovechado en el proyecto. La redacción se va a hacer por parte del personal interno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esto supone la posibilidad de que el personal de la empresa realice el trabajo del proyecto de una manera rápida y eficaz, entre otras cosas porque al hacerse por el personal interno, las partes nuevas del nuevo sistema deberían ser más realistas y fáciles de implantar que en otro caso. </t>
-  </si>
-  <si>
-    <t>Lo cual llevaría a ahorros en coste y plazo.</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
-    <t>1. Experto externo para analizar la utilidad del sistema de calidad existente, así como la idoneidad de los objetivos. Que supervise los trabajos del proyecto. 
-2. Contactar con empresas certificadas (o en proceso), para el mismo propósito que en A1.
-3. Entidades certificadoras: mismo fin.
-4. Controles de proyecto: periodicidad corta.
-5. Recopilar los datos reales resultado de usar el sistema actual, para su uso en la certificación.
-6. Evaluar qué partes del sistema actual son mejorables, para excluirlas o usarlas con modificaciones, e identificar qué tareas se estaban desarrollando de manera informal, para incluirlas en el nuevo sistema.
-7. Tener bien informado al personal.
-8. Hacerle ver la importancia del proyecto.
-9. Identificar y satisfacer las necesidades de formación del personal.
-10. Implicar a la mayor cantidad posible de personal. 
-11. Estructurar bien el equipo de proyecto y definir claramente papeles, responsabilidad y autoridad. 
-12. Realizar asignaciones de trabajo a grupos equilibrados Junior-Senior.
-13. Organizar el trabajo de manera que el personal de mayor experiencia y conocimientos sea el que más tareas realice, o que realicen las más dificultosas. 
-14. Experto externo para mentoring o coaching con las personas clave.
-15. Incentivos económicos o de tiempo libre.
-16. Buzón de sugerencias.</t>
-  </si>
-  <si>
     <t>1, 3, 4 y 7 a 13. Analizar 15 y 16.</t>
   </si>
   <si>
-    <t>Periodo 2. 
-Cambio en las prioridades de objetivos. Antes era Alcance-Plazo-Coste; ahora es Alcance-Coste-Plazo. 
-El objetivo de plazo se redefine: 12 meses.
-Se contrata a una empresa de consultoría, para analizar la utilidad del sistema de calidad existente, así como la idoneidad de los objetivos. También va a supervisar los trabajos del proyecto, entre otras cosas. 
-La práctica totalidad de la empresa va a participar en el proyecto. 
-Salvo una persona, por ahora hay un apoyo generalizado al proyecto.
-Se planifican sesiones de información y actividades de formación.</t>
-  </si>
-  <si>
     <t>O2</t>
   </si>
   <si>
@@ -135,21 +99,6 @@
   </si>
   <si>
     <t>El objetivo de coste del proyecto se vería beneficiado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seguimiento continuo de las convocatorias. 
-2. Contactar con empresas subvencionadas para afinar la estimación de probabilidad e impacto e identificar otras potenciales respuestas.
-3. Experto externo: mismo fin.
-4. Responsables de la administración: mismo fin. 
-5. Entidades certificadoras: mismo fin.
-6. Asignar la redacción de solicitudes al personal de mayor experiencia y conocimientos.
-7. Experto externo para supervisar dicho trabajo, apoyando al personal interno. 
-8. Experto externo: que redacten las solicitudes.
-9. Compartir las subvenciones con cualquier organización que refuerce esta oportunidad.
-10. Redefinir el objetivo de coste, recortándolo. </t>
-  </si>
-  <si>
-    <t>1, 3 y 5 a 7. Analizar la 9.</t>
   </si>
   <si>
     <t>Periodo 2. 
@@ -167,24 +116,6 @@
     <t>O3</t>
   </si>
   <si>
-    <t>El director del proyecto es el Director General de la empresa, estando esta persona plenamente convencida de la importancia del proyecto.</t>
-  </si>
-  <si>
-    <t>Podría ocurrir que esto llevase a que este proyecto gozase de todo tipo de ventajas frente a otros (salvo, obviamente, los contratos para clientes), recibiendo siempre prioridad.</t>
-  </si>
-  <si>
-    <t>Al margen de reforzar las posibilidades de éxito del proyecto a efectos del alcance del mismo, esto podría recortar el plazo del proyecto.</t>
-  </si>
-  <si>
-    <t>1. Establecer desde el principio una estrategia clara y hábil de comunicación con todo el personal, para reforzar más la posición de esta persona. 
-2. Para ello, se pueden llevara cabo reuniones con el resto de socios, por un lado, y con el resto del personal, para hacerles partícipes de la importancia de este proyecto, comunicarles sus ventajas.
-3. También, reuniones periódicas para informar a todo el personal del progreso habido en el proyecto y para motivarles para avanzar en el mismo. 
-4. Establecer un contacto continuo con la empresa de consultoría, para que esta persona esté correctamente apoyada en todo momento.</t>
-  </si>
-  <si>
-    <t>Todas.</t>
-  </si>
-  <si>
     <t>Existen probabilidades de que la salida de la red no presente un resultado fiable.</t>
   </si>
   <si>
@@ -198,17 +129,59 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">pruebas mensuales del rendimiento de salida de las simulaciones
+    <t>las zonas de instalación estén en zonas incomunicadas o de baja cobertura</t>
+  </si>
+  <si>
+    <t>el tiempo de ejecucion de la red no es suficiente. Posibilidad de que no se recoja toda la variabilidad de los datos</t>
+  </si>
+  <si>
+    <t>no sabemos la evolución del coste de la energía en un futuro.</t>
+  </si>
+  <si>
+    <t>Coste de energía.</t>
+  </si>
+  <si>
+    <t>aumento de interés en nuestro proyecto si el coste de energía aumenta.</t>
+  </si>
+  <si>
+    <t>1.seguimiento del coste. 
+2.Informar del precio de los aumentos a los clientes. 
+3.Mostrar, con ejemplos de distintas ciudades,evolucion de la energia de los ultimos años en nuestra web, mediante correos...</t>
+  </si>
+  <si>
+    <t>1 y 2</t>
+  </si>
+  <si>
+    <t>desconocimiento de los periodos de la variabilidad de los datos, solo podemos hacer una estimación</t>
+  </si>
+  <si>
+    <t>problemas a la hora de recoger los datos.</t>
+  </si>
+  <si>
+    <t>programar scipts de monitorizacion del tipo y frecuencia de los datos recibidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seguimiento continuo de las convocatorias. 
+2. Contactar con empresas subvencionadas para afinar la estimación de probabilidad e impacto.
+5. Asignar la redacción de solicitudes al jefe de proyecto.
+9. Redefinir el objetivo de coste, recortándolo. </t>
+  </si>
+  <si>
+    <t>1 y 5 . Analizar la 9.</t>
+  </si>
+  <si>
+    <t>1. instalación de repetidores
+2. análisis de las zonas de los equipos para ver si tienen zonas cercanas con más cobertura.
+3. selecccionar compañías con más cobertura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. estimación matemática de los datos usando históricos para introducir en la red datos simulados.
+2. aumentar el tiempo de toma de datos para intentar abarcar toda la variabiliad.
+3. comenzar la toma de datos al final de una estación porque en los cambios de estación se presupone que va a haber un cambio mayor en la variabilidad.
 </t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>las zonas de instalación estén en zonas incomunicadas o de baja cobertura</t>
-  </si>
-  <si>
-    <t>el tiempo de ejecucion de la red no es suficiente. Posibilidad de que no se recoja toda la variabilidad de los datos</t>
+    <t>3 y analizar 1</t>
   </si>
 </sst>
 </file>
@@ -606,9 +579,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -636,6 +606,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,7 +991,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1036,33 +1009,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="33" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="13" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1072,29 +1045,29 @@
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="33"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="184.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>13</v>
@@ -1106,30 +1079,22 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J4" s="11">
         <v>1</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="G5" s="16">
         <v>0.8</v>
@@ -1137,31 +1102,27 @@
       <c r="H5" s="14">
         <v>3</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="I5" s="14"/>
       <c r="J5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="2:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" s="16">
         <v>0.6</v>
@@ -1170,1020 +1131,1036 @@
         <v>3</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="17"/>
+      <c r="G7" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="20">
+        <v>3</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="20">
-        <v>2</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
+      <c r="J8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="26">
+        <v>4</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="28">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="26">
-        <v>2</v>
-      </c>
-      <c r="I9" s="26" t="s">
+      <c r="J9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>36</v>
-      </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="K17" s="32"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="K22" s="32"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="K23" s="32"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="K24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="K26" s="32"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="K28" s="32"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="K29" s="32"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+      <c r="K29" s="31"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="K30" s="32"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="K31" s="32"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
+      <c r="K31" s="31"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="K32" s="32"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="K33" s="32"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-      <c r="K37" s="32"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-      <c r="K38" s="32"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="K38" s="31"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="32"/>
-      <c r="K39" s="32"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="K39" s="31"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+      <c r="K40" s="31"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="K41" s="32"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
+      <c r="K41" s="31"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
-      <c r="K42" s="32"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
+      <c r="K42" s="31"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="K43" s="32"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
+      <c r="K43" s="31"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-      <c r="K44" s="32"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31"/>
+      <c r="K44" s="31"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
+      <c r="K45" s="31"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
-      <c r="K46" s="32"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="31"/>
+      <c r="K46" s="31"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
-      <c r="K47" s="32"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
+      <c r="K47" s="31"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
-      <c r="K48" s="32"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
+      <c r="K48" s="31"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
-      <c r="K49" s="32"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
+      <c r="K49" s="31"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32"/>
-      <c r="K50" s="32"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="31"/>
+      <c r="K50" s="31"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
-      <c r="K51" s="32"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
+      <c r="K51" s="31"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="32"/>
-      <c r="K52" s="32"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="31"/>
+      <c r="K52" s="31"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31"/>
+      <c r="K53" s="31"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="32"/>
-      <c r="K54" s="32"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="32"/>
-      <c r="K55" s="32"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="31"/>
+      <c r="K55" s="31"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="32"/>
-      <c r="K56" s="32"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="31"/>
+      <c r="K56" s="31"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-      <c r="K57" s="32"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="31"/>
+      <c r="K57" s="31"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="32"/>
-      <c r="K58" s="32"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="31"/>
+      <c r="K58" s="31"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="32"/>
-      <c r="K59" s="32"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="31"/>
+      <c r="K59" s="31"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="32"/>
-      <c r="K60" s="32"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="31"/>
+      <c r="K60" s="31"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="30"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="32"/>
-      <c r="K61" s="32"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="31"/>
+      <c r="K61" s="31"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="32"/>
-      <c r="K62" s="32"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="31"/>
+      <c r="K62" s="31"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="32"/>
-      <c r="K63" s="32"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="31"/>
+      <c r="K63" s="31"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="32"/>
-      <c r="K64" s="32"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="31"/>
+      <c r="K64" s="31"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="32"/>
-      <c r="K65" s="32"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="31"/>
+      <c r="K65" s="31"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="32"/>
-      <c r="K66" s="32"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="31"/>
+      <c r="K66" s="31"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="32"/>
-      <c r="K67" s="32"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="31"/>
+      <c r="K67" s="31"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="32"/>
-      <c r="K68" s="32"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="31"/>
+      <c r="K68" s="31"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="32"/>
-      <c r="K69" s="32"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="31"/>
+      <c r="K69" s="31"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="32"/>
-      <c r="K70" s="32"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="31"/>
+      <c r="K70" s="31"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="32"/>
-      <c r="K71" s="32"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="31"/>
+      <c r="K71" s="31"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="32"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="31"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="30"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="32"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="31"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="30"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="32"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="31"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="30"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="32"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="31"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="32"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="31"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="30"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="32"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="31"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="32"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="30"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="32"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="31"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="30"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="32"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="31"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="30"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="32"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="31"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="30"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="32"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="31"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="30"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="32"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="31"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="32"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="31"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="30"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="32"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="31"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="30"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="32"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="31"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="30"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="32"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="31"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="32"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="31"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="30"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="32"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="31"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="30"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="32"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="31"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="30"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="32"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="31"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="30"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="32"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="31"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="30"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="32"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="31"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="32"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="31"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="30"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="32"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="31"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="30"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="32"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="31"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/EjemploRegistroRiesgos.xlsx
+++ b/EjemploRegistroRiesgos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\Q5-GCED\XPED\Proyecto XPED\XPED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858EF16-B1D4-480D-9A77-D27AA70FD2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B17A681-3830-4BF8-ADB7-46300C11B85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Cód.</t>
   </si>
@@ -80,15 +80,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>O1</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
-    <t>1, 3, 4 y 7 a 13. Analizar 15 y 16.</t>
-  </si>
-  <si>
     <t>O2</t>
   </si>
   <si>
@@ -101,12 +95,6 @@
     <t>El objetivo de coste del proyecto se vería beneficiado.</t>
   </si>
   <si>
-    <t>Periodo 2. 
-Cambio en las prioridades de objetivos. Antes era Alcance-Plazo-Coste; ahora es Alcance-Coste-Plazo. 
-El objetivo de plazo se redefine: 12 meses.
-Se contrata a una empresa de consultoría, que va a ayudar en este aspecto.</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
   </si>
   <si>
     <t>Existen probabilidades de que la salida de la red no presente un resultado fiable.</t>
-  </si>
-  <si>
-    <t>no sabemos cual es el patron de los datos.</t>
   </si>
   <si>
     <t>De ocurrir lo anterior, puede ocurrir que los resultados no sean los esperados.</t>
@@ -156,9 +141,6 @@
   </si>
   <si>
     <t>problemas a la hora de recoger los datos.</t>
-  </si>
-  <si>
-    <t>programar scipts de monitorizacion del tipo y frecuencia de los datos recibidos</t>
   </si>
   <si>
     <t xml:space="preserve">1. Seguimiento continuo de las convocatorias. 
@@ -182,6 +164,50 @@
   </si>
   <si>
     <t>3 y analizar 1</t>
+  </si>
+  <si>
+    <t>no sabemos cual es el patron de los datos y la calidad del funcionamiento de la red.</t>
+  </si>
+  <si>
+    <t>En las simulaciones de salida ver si los resultados en esas pruebas son satisfactorios y sino buscar otras arquitecturas de las red</t>
+  </si>
+  <si>
+    <t>Desconocimiento la localizacion de las instalaciones.</t>
+  </si>
+  <si>
+    <t>crear un protocolo para instalaciones nuevas en el que se chequee la cobertura para ver si hace falta llevar a cabo alguna de las respuestas.</t>
+  </si>
+  <si>
+    <t>programar scipts de monitorizacion del tipo y frecuencia de los datos recibidos.</t>
+  </si>
+  <si>
+    <t>monitorizar los cambios y llevar acabo acciones en caso de que los costes de la energía sean extremos.</t>
+  </si>
+  <si>
+    <t>Problemas a la hora de recoger los datos</t>
+  </si>
+  <si>
+    <t>desconocemos si puede haber incompatibilidades entre los equipos en los protocolos de comunicación.</t>
+  </si>
+  <si>
+    <t>los datos no son válidos.</t>
+  </si>
+  <si>
+    <t>1 y 2.</t>
+  </si>
+  <si>
+    <t>1. recopilar informacion del fabricante para el protocolo de comunicación.
+2. programar scripts para transformar los datos
+3. buscar equipos intermedios para la adaptación de los protocolos.</t>
+  </si>
+  <si>
+    <t>revisar periodicamente (2 semanas) los datos y crear scripts para controlar que el tipo de dato no varía</t>
+  </si>
+  <si>
+    <t>chequear periodicamente (2 semanas) en los dos primeros tercios del proyecto si salen subenciones que podrían ser solicitades</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
 </sst>
 </file>
@@ -495,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -586,6 +612,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -606,9 +638,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,7 +1020,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1009,33 +1038,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="13" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1045,29 +1074,29 @@
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="2:11" ht="184.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>13</v>
@@ -1079,50 +1108,62 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" s="11">
         <v>1</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="16">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="14">
-        <v>3</v>
-      </c>
-      <c r="I5" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="J5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="2:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="16">
         <v>0.6</v>
@@ -1131,25 +1172,27 @@
         <v>3</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>13</v>
@@ -1161,60 +1204,62 @@
         <v>2</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="2:11" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="20">
         <v>3</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="28">
         <v>0.6</v>
@@ -1223,12 +1268,14 @@
         <v>4</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
